--- a/three-val-l-1.xlsx
+++ b/three-val-l-1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/weath/Documents/F22-296/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD32AD14-85AD-BB43-BFA9-43181F877BDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F51A0E72-B0B2-7C42-960E-5F5C223AF621}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6340" yWindow="2620" windowWidth="28040" windowHeight="17440" xr2:uid="{227A10A8-2CB5-8248-915F-5BF5DBD6D4A3}"/>
   </bookViews>
@@ -44,13 +44,13 @@
     <t>B</t>
   </si>
   <si>
-    <t>A v B</t>
+    <t>¬B</t>
   </si>
   <si>
-    <t>~B</t>
+    <t>¬B → A</t>
   </si>
   <si>
-    <t>~B -&gt; A</t>
+    <t>A v B</t>
   </si>
 </sst>
 </file>
@@ -405,7 +405,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E10"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -418,13 +418,13 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
